--- a/Data_file/ยืมโชว์8.xlsx
+++ b/Data_file/ยืมโชว์8.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5025" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="220">
   <si>
     <t>partner_id</t>
   </si>
@@ -686,12 +686,6 @@
   <si>
     <t>NFG05-H4-W1-1812</t>
   </si>
-  <si>
-    <t>MU006NF101</t>
-  </si>
-  <si>
-    <t>FCA0001103</t>
-  </si>
 </sst>
 </file>
 
@@ -1018,7 +1012,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1085,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1098,36 +1092,9 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45716</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45716</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>378.66</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
